--- a/www/ig/fhir/mesures/3.0.0/StructureDefinition-mes-fr-observation-bmi.xlsx
+++ b/www/ig/fhir/mesures/3.0.0/StructureDefinition-mes-fr-observation-bmi.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4433" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4451" uniqueCount="683">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-22T16:32:25+01:00</t>
+    <t>2023-03-23T15:01:14+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -322,6 +322,13 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Observation.meta.id</t>
   </si>
   <si>
@@ -607,16 +614,10 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Observation.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -638,10 +639,6 @@
     <t>Other resources *from the patient record* that may be relevant to the event.  The information from these resources was either used to create the instance or is provided to help with its interpretation.  This extension **should not** be used if more specific  inline elements  or extensions are available.  For example, use `Observation.hasMember`  instead of supportingInformation for  representing the members of an Observation panel.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>Observation.modifierExtension</t>
   </si>
   <si>
@@ -652,7 +649,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -703,7 +700,14 @@
     <t>A plan, proposal or order that is fulfilled in whole or in part by this event.  For example, a MedicationRequest may require a patient to have laboratory test performed before  it is dispensed.</t>
   </si>
   <si>
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
+  </si>
+  <si>
     <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
   </si>
   <si>
     <t>Event.basedOn</t>
@@ -732,7 +736,7 @@
     <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.</t>
   </si>
   <si>
-    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
+    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
   </si>
   <si>
     <t>Event.partOf</t>
@@ -760,6 +764,9 @@
   </si>
   <si>
     <t>required</t>
+  </si>
+  <si>
+    <t>Codes providing the status of an observation.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
@@ -809,6 +816,9 @@
 value:coding.system}</t>
   </si>
   <si>
+    <t>CE/CNE/CWE</t>
+  </si>
+  <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
   </si>
   <si>
@@ -936,6 +946,9 @@
   </si>
   <si>
     <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
   </si>
   <si>
     <t>Need to refer to a particular code in the system.</t>
@@ -1192,7 +1205,7 @@
     <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.</t>
   </si>
   <si>
-    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](http://hl7.org/fhir/extension-observation-focuscode.html).</t>
+    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](extension-observation-focuscode.html).</t>
   </si>
   <si>
     <t>participation[typeCode=SBJ]</t>
@@ -1250,14 +1263,14 @@
     <t>Often just a dateTime for Vital Signs.</t>
   </si>
   <si>
-    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](http://hl7.org/fhir/datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
+    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
   </si>
   <si>
     <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
   </si>
   <si>
-    <t xml:space="preserve">vs-1
-</t>
+    <t>ele-1
+vs-1</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -1285,7 +1298,7 @@
     <t>The date and time this version of the observation was made available to providers, typically after the results have been reviewed and verified.</t>
   </si>
   <si>
-    <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](http://hl7.org/fhir/resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
+    <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
   </si>
   <si>
     <t>OBR.22 (or MSH.7), or perhaps OBX-19 (depends on who observation made)</t>
@@ -1328,48 +1341,52 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
+    <t>Quantity
+CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
+  </si>
+  <si>
+    <t>Vital Signs value are recorded using the Quantity data type. For supporting observations such as Cuff size could use other datatypes such as CodeableConcept.</t>
+  </si>
+  <si>
+    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](observation.html#notes) below.</t>
+  </si>
+  <si>
+    <t>9. SHALL contain exactly one [1..1] value with @xsi:type="PQ" (CONF:7305).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>sclicing description</t>
+  </si>
+  <si>
+    <t>ele-1
+obs-7vs-2</t>
+  </si>
+  <si>
+    <t>&lt; 441742003 |Evaluation finding|</t>
+  </si>
+  <si>
+    <t>OBX.2, OBX.5, OBX.6</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>363714003 |Interprets|</t>
+  </si>
+  <si>
+    <t>Observation.value[x]:valueQuantity</t>
+  </si>
+  <si>
+    <t>valueQuantity</t>
+  </si>
+  <si>
     <t xml:space="preserve">Quantity
 </t>
   </si>
   <si>
-    <t>Vital Signs value are recorded using the Quantity data type. For supporting observations such as Cuff size could use other datatypes such as CodeableConcept.</t>
-  </si>
-  <si>
-    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/observation.html#notes) below.</t>
-  </si>
-  <si>
-    <t>9. SHALL contain exactly one [1..1] value with @xsi:type="PQ" (CONF:7305).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>obs-7
-vs-2</t>
-  </si>
-  <si>
-    <t>&lt; 441742003 |Evaluation finding|</t>
-  </si>
-  <si>
-    <t>OBX.2, OBX.5, OBX.6</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>363714003 |Interprets|</t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueQuantity</t>
-  </si>
-  <si>
-    <t>valueQuantity</t>
-  </si>
-  <si>
     <t>Observation.value[x]:valueQuantity.id</t>
   </si>
   <si>
@@ -1482,6 +1499,9 @@
     <t>The identification of the system that provides the coded form of the unit.</t>
   </si>
   <si>
+    <t>see http://en.wikipedia.org/wiki/Uniform_resource_identifier</t>
+  </si>
+  <si>
     <t>Need to know the system that defines the coded form of the unit.</t>
   </si>
   <si>
@@ -1491,8 +1511,8 @@
     <t>Quantity.system</t>
   </si>
   <si>
-    <t xml:space="preserve">qty-3
-</t>
+    <t>ele-1
+qty-3</t>
   </si>
   <si>
     <t>CO.codeSystem, PQ.translation.codeSystem</t>
@@ -1544,8 +1564,8 @@
     <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
   </si>
   <si>
-    <t>obs-6
-vs-2</t>
+    <t>ele-1
+obs-6vs-2</t>
   </si>
   <si>
     <t>value.nullFlavor</t>
@@ -1649,11 +1669,14 @@
     <t>Observation.bodySite</t>
   </si>
   <si>
-    <t>Non utilisé</t>
+    <t>Observed body part</t>
+  </si>
+  <si>
+    <t>Indicates the site on the subject's body where the observation was made (i.e. the target site).</t>
   </si>
   <si>
     <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
-If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/extension-bodysite.html).</t>
+If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](extension-bodysite.html).</t>
   </si>
   <si>
     <t>Codes describing anatomical locations. May include laterality.</t>
@@ -1675,6 +1698,12 @@
   </si>
   <si>
     <t>Observation.method</t>
+  </si>
+  <si>
+    <t>How it was done</t>
+  </si>
+  <si>
+    <t>Indicates the mechanism used to perform the observation.</t>
   </si>
   <si>
     <t>Only used if not implicit in code for Observation.code.</t>
@@ -1818,8 +1847,15 @@
     <t>The value of the low bound of the reference range.  The low bound of the reference range endpoint is inclusive of the value (e.g.  reference range is &gt;=5 - &lt;=9). If the low bound is omitted,  it is assumed to be meaningless (e.g. reference range is &lt;=2.3).</t>
   </si>
   <si>
-    <t xml:space="preserve">obs-3
-</t>
+    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
+  </si>
+  <si>
+    <t>ele-1
+obs-3</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
   </si>
   <si>
     <t>OBX-7</t>
@@ -1940,7 +1976,17 @@
     <t>The age at which this reference range is applicable. This is a neonatal age (e.g. number of weeks at term) if the meaning says so.</t>
   </si>
   <si>
+    <t>The stated low and high value are assumed to have arbitrarily high precision when it comes to determining which values are in the range. I.e. 1.99 is not in the range 2 -&gt; 3.</t>
+  </si>
+  <si>
     <t>Some analytes vary greatly over age.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+rng-2:If present, low SHALL have a lower value than high {low.empty() or high.empty() or (low &lt;= high)}</t>
+  </si>
+  <si>
+    <t>NR and also possibly SN (but see also quantity)</t>
   </si>
   <si>
     <t>outboundRelationship[typeCode=PRCN].targetObservationCriterion[code="age"].value</t>
@@ -1965,7 +2011,13 @@
 </t>
   </si>
   <si>
-    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
+    <t>Used when reporting vital signs panel components</t>
+  </si>
+  <si>
+    <t>Used when reporting vital signs panel components.</t>
+  </si>
+  <si>
+    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>
@@ -1981,7 +2033,13 @@
 </t>
   </si>
   <si>
-    <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below.</t>
+    <t>Related measurements the observation is made from</t>
+  </si>
+  <si>
+    <t>The target resource that represents a measurement from which this observation value is derived. For example, a calculated anion gap or a fetal measurement based on an ultrasound image.</t>
+  </si>
+  <si>
+    <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](observation.html#obsgrouping) below.</t>
   </si>
   <si>
     <t>.targetObservation</t>
@@ -1993,7 +2051,7 @@
     <t>Used when reporting systolic and diastolic blood pressure.</t>
   </si>
   <si>
-    <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](http://hl7.org/fhir/observation.html#notes) below.</t>
+    <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](observation.html#notes) below.</t>
   </si>
   <si>
     <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.</t>
@@ -2040,17 +2098,13 @@
     <t>Observation.component.value[x]</t>
   </si>
   <si>
-    <t>Quantity
-CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
-  </si>
-  <si>
     <t>Vital Sign Value recorded with UCUM</t>
   </si>
   <si>
     <t>Vital Sign Value recorded with UCUM.</t>
   </si>
   <si>
-    <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/observation.html#notes) below.</t>
+    <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](observation.html#notes) below.</t>
   </si>
   <si>
     <t>Common UCUM units for recording Vital Signs.</t>
@@ -2059,8 +2113,8 @@
     <t>http://hl7.org/fhir/ValueSet/ucum-vitals-common|4.0.1</t>
   </si>
   <si>
-    <t xml:space="preserve">vs-3
-</t>
+    <t>ele-1
+vs-3</t>
   </si>
   <si>
     <t>363714003 |Interprets| &lt; 441742003 |Evaluation finding|</t>
@@ -2079,8 +2133,8 @@
 The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed.  Because of these options, use-case agreements are required to interpret general observations for exceptional values.</t>
   </si>
   <si>
-    <t>obs-6
-vs-3</t>
+    <t>ele-1
+obs-6vs-3</t>
   </si>
   <si>
     <t>Observation.component.interpretation</t>
@@ -2914,7 +2968,7 @@
         <v>88</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>78</v>
@@ -2929,7 +2983,7 @@
         <v>78</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AO4" t="s" s="2">
         <v>78</v>
@@ -2940,10 +2994,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2966,13 +3020,13 @@
         <v>78</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -3023,7 +3077,7 @@
         <v>78</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>76</v>
@@ -3047,7 +3101,7 @@
         <v>78</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO5" t="s" s="2">
         <v>78</v>
@@ -3058,14 +3112,14 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -3084,16 +3138,16 @@
         <v>78</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -3131,19 +3185,19 @@
         <v>78</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>76</v>
@@ -3155,7 +3209,7 @@
         <v>78</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>78</v>
@@ -3167,7 +3221,7 @@
         <v>78</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO6" t="s" s="2">
         <v>78</v>
@@ -3178,10 +3232,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -3207,13 +3261,13 @@
         <v>90</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3263,7 +3317,7 @@
         <v>78</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>76</v>
@@ -3275,7 +3329,7 @@
         <v>78</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>78</v>
@@ -3298,10 +3352,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -3324,16 +3378,16 @@
         <v>89</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3383,7 +3437,7 @@
         <v>78</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>76</v>
@@ -3395,7 +3449,7 @@
         <v>78</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>78</v>
@@ -3418,10 +3472,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -3444,16 +3498,16 @@
         <v>89</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3503,7 +3557,7 @@
         <v>78</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>76</v>
@@ -3515,7 +3569,7 @@
         <v>78</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>78</v>
@@ -3538,10 +3592,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3564,16 +3618,16 @@
         <v>89</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -3611,17 +3665,17 @@
         <v>78</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AC10" s="2"/>
       <c r="AD10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -3633,7 +3687,7 @@
         <v>78</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>78</v>
@@ -3656,10 +3710,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>7</v>
@@ -3684,16 +3738,16 @@
         <v>89</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3743,7 +3797,7 @@
         <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
@@ -3755,7 +3809,7 @@
         <v>78</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>78</v>
@@ -3778,10 +3832,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3804,16 +3858,16 @@
         <v>89</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3839,13 +3893,13 @@
         <v>78</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>78</v>
@@ -3863,7 +3917,7 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
@@ -3875,7 +3929,7 @@
         <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>78</v>
@@ -3898,10 +3952,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3924,16 +3978,16 @@
         <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3959,13 +4013,13 @@
         <v>78</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>78</v>
@@ -3983,7 +4037,7 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
@@ -3995,7 +4049,7 @@
         <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>78</v>
@@ -4018,10 +4072,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -4044,16 +4098,16 @@
         <v>89</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -4103,7 +4157,7 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
@@ -4112,10 +4166,10 @@
         <v>88</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>78</v>
@@ -4127,7 +4181,7 @@
         <v>78</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>78</v>
@@ -4138,10 +4192,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -4164,16 +4218,16 @@
         <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -4199,13 +4253,13 @@
         <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>78</v>
@@ -4223,7 +4277,7 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
@@ -4232,10 +4286,10 @@
         <v>88</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>78</v>
@@ -4247,7 +4301,7 @@
         <v>78</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>78</v>
@@ -4258,14 +4312,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -4284,16 +4338,16 @@
         <v>78</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -4343,7 +4397,7 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
@@ -4352,10 +4406,10 @@
         <v>88</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>78</v>
@@ -4367,7 +4421,7 @@
         <v>78</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>78</v>
@@ -4378,14 +4432,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -4404,16 +4458,16 @@
         <v>78</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4463,7 +4517,7 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
@@ -4487,7 +4541,7 @@
         <v>78</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>189</v>
+        <v>101</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>78</v>
@@ -4498,14 +4552,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -4524,15 +4578,17 @@
         <v>78</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>191</v>
+        <v>111</v>
       </c>
       <c r="M18" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="N18" s="2"/>
+      <c r="N18" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>78</v>
@@ -4569,14 +4625,16 @@
         <v>78</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AC18" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="AD18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>193</v>
@@ -4588,10 +4646,10 @@
         <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>78</v>
@@ -4603,7 +4661,7 @@
         <v>78</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>78</v>
@@ -4617,13 +4675,13 @@
         <v>194</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>195</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -4650,7 +4708,9 @@
       <c r="M19" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="N19" s="2"/>
+      <c r="N19" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>78</v>
@@ -4708,10 +4768,10 @@
         <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>78</v>
@@ -4723,7 +4783,7 @@
         <v>78</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>78</v>
@@ -4734,14 +4794,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4760,19 +4820,19 @@
         <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O20" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>78</v>
@@ -4809,19 +4869,19 @@
         <v>78</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
@@ -4830,10 +4890,10 @@
         <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>78</v>
@@ -4845,7 +4905,7 @@
         <v>78</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>189</v>
+        <v>101</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>78</v>
@@ -4856,10 +4916,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4882,17 +4942,17 @@
         <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>78</v>
@@ -4941,7 +5001,7 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
@@ -4950,25 +5010,25 @@
         <v>77</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AL21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AN21" t="s" s="2">
+      <c r="AO21" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>78</v>
@@ -4976,14 +5036,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -5002,15 +5062,17 @@
         <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>219</v>
       </c>
@@ -5061,7 +5123,7 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
@@ -5070,22 +5132,22 @@
         <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>122</v>
+        <v>220</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>78</v>
@@ -5096,14 +5158,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -5122,16 +5184,16 @@
         <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -5181,7 +5243,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -5190,22 +5252,22 @@
         <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>122</v>
+        <v>220</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>78</v>
@@ -5216,10 +5278,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5242,19 +5304,19 @@
         <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>78</v>
@@ -5279,11 +5341,13 @@
         <v>78</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="Y24" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="Z24" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>78</v>
@@ -5301,7 +5365,7 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>88</v>
@@ -5310,25 +5374,25 @@
         <v>88</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>78</v>
@@ -5336,10 +5400,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5362,19 +5426,19 @@
         <v>78</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>78</v>
@@ -5399,29 +5463,29 @@
         <v>78</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AC25" s="2"/>
       <c r="AD25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
@@ -5430,10 +5494,10 @@
         <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>78</v>
@@ -5442,13 +5506,13 @@
         <v>78</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>78</v>
+        <v>255</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>78</v>
@@ -5456,13 +5520,13 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>78</v>
@@ -5484,19 +5548,19 @@
         <v>78</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>78</v>
@@ -5521,13 +5585,13 @@
         <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>78</v>
@@ -5545,7 +5609,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -5554,10 +5618,10 @@
         <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>78</v>
@@ -5566,13 +5630,13 @@
         <v>78</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>78</v>
+        <v>255</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>78</v>
@@ -5580,10 +5644,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5606,13 +5670,13 @@
         <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5663,7 +5727,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -5687,7 +5751,7 @@
         <v>78</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>78</v>
@@ -5698,14 +5762,14 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5724,16 +5788,16 @@
         <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5771,19 +5835,19 @@
         <v>78</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
@@ -5792,10 +5856,10 @@
         <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>78</v>
@@ -5807,7 +5871,7 @@
         <v>78</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>78</v>
@@ -5818,10 +5882,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5844,19 +5908,19 @@
         <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>78</v>
@@ -5905,7 +5969,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -5914,10 +5978,10 @@
         <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>78</v>
@@ -5926,10 +5990,10 @@
         <v>78</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>78</v>
@@ -5940,10 +6004,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5966,13 +6030,13 @@
         <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -6023,7 +6087,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
@@ -6047,7 +6111,7 @@
         <v>78</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>78</v>
@@ -6058,14 +6122,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -6084,16 +6148,16 @@
         <v>78</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -6131,19 +6195,19 @@
         <v>78</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
@@ -6152,10 +6216,10 @@
         <v>77</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>78</v>
@@ -6167,7 +6231,7 @@
         <v>78</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>78</v>
@@ -6178,10 +6242,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6204,26 +6268,26 @@
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>78</v>
@@ -6265,7 +6329,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
@@ -6274,10 +6338,10 @@
         <v>88</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>78</v>
@@ -6286,10 +6350,10 @@
         <v>78</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>78</v>
@@ -6300,10 +6364,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6326,16 +6390,16 @@
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -6385,7 +6449,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
@@ -6394,10 +6458,10 @@
         <v>88</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>78</v>
@@ -6406,10 +6470,10 @@
         <v>78</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>78</v>
@@ -6420,10 +6484,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6446,24 +6510,26 @@
         <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="O34" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>78</v>
@@ -6505,7 +6571,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
@@ -6514,10 +6580,10 @@
         <v>88</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>78</v>
@@ -6526,10 +6592,10 @@
         <v>78</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>78</v>
@@ -6540,10 +6606,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6566,17 +6632,19 @@
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="O35" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>78</v>
@@ -6625,7 +6693,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
@@ -6634,10 +6702,10 @@
         <v>88</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>78</v>
@@ -6646,10 +6714,10 @@
         <v>78</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>78</v>
@@ -6660,10 +6728,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6686,19 +6754,19 @@
         <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>78</v>
@@ -6747,7 +6815,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
@@ -6756,10 +6824,10 @@
         <v>88</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>78</v>
@@ -6768,10 +6836,10 @@
         <v>78</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>78</v>
@@ -6782,10 +6850,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6808,19 +6876,19 @@
         <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -6869,7 +6937,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -6878,10 +6946,10 @@
         <v>88</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>78</v>
@@ -6890,10 +6958,10 @@
         <v>78</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>78</v>
@@ -6904,14 +6972,14 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6930,19 +6998,19 @@
         <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>78</v>
@@ -6967,13 +7035,13 @@
         <v>78</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>78</v>
@@ -6991,7 +7059,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>88</v>
@@ -7000,36 +7068,36 @@
         <v>88</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7052,13 +7120,13 @@
         <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -7109,7 +7177,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -7133,7 +7201,7 @@
         <v>78</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>78</v>
@@ -7144,14 +7212,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -7170,16 +7238,16 @@
         <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -7217,19 +7285,19 @@
         <v>78</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -7238,10 +7306,10 @@
         <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>78</v>
@@ -7253,7 +7321,7 @@
         <v>78</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>78</v>
@@ -7264,10 +7332,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7290,19 +7358,19 @@
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>78</v>
@@ -7339,17 +7407,17 @@
         <v>78</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="AC41" s="2"/>
       <c r="AD41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
@@ -7358,10 +7426,10 @@
         <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>78</v>
@@ -7370,10 +7438,10 @@
         <v>78</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>78</v>
@@ -7384,13 +7452,13 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>78</v>
@@ -7412,19 +7480,19 @@
         <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>78</v>
@@ -7473,7 +7541,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -7482,10 +7550,10 @@
         <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>78</v>
@@ -7494,10 +7562,10 @@
         <v>78</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>78</v>
@@ -7508,10 +7576,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7534,13 +7602,13 @@
         <v>78</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7591,7 +7659,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -7615,7 +7683,7 @@
         <v>78</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>78</v>
@@ -7626,14 +7694,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7652,16 +7720,16 @@
         <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7699,19 +7767,19 @@
         <v>78</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
@@ -7720,10 +7788,10 @@
         <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>78</v>
@@ -7735,7 +7803,7 @@
         <v>78</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>78</v>
@@ -7746,10 +7814,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7772,26 +7840,26 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="S45" t="s" s="2">
         <v>78</v>
@@ -7833,7 +7901,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
@@ -7842,10 +7910,10 @@
         <v>88</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>78</v>
@@ -7854,10 +7922,10 @@
         <v>78</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>78</v>
@@ -7868,10 +7936,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7894,16 +7962,16 @@
         <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7953,7 +8021,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
@@ -7962,10 +8030,10 @@
         <v>88</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>78</v>
@@ -7974,10 +8042,10 @@
         <v>78</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>78</v>
@@ -7988,10 +8056,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8014,24 +8082,26 @@
         <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="O47" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S47" t="s" s="2">
         <v>78</v>
@@ -8073,7 +8143,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -8082,10 +8152,10 @@
         <v>88</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>78</v>
@@ -8094,10 +8164,10 @@
         <v>78</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>78</v>
@@ -8108,10 +8178,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8134,17 +8204,19 @@
         <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="O48" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>78</v>
@@ -8193,7 +8265,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
@@ -8202,10 +8274,10 @@
         <v>88</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>78</v>
@@ -8214,10 +8286,10 @@
         <v>78</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>78</v>
@@ -8228,10 +8300,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8254,19 +8326,19 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>78</v>
@@ -8315,7 +8387,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
@@ -8324,10 +8396,10 @@
         <v>88</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>78</v>
@@ -8336,10 +8408,10 @@
         <v>78</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>78</v>
@@ -8350,10 +8422,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8376,19 +8448,19 @@
         <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>78</v>
@@ -8437,7 +8509,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
@@ -8446,10 +8518,10 @@
         <v>88</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>78</v>
@@ -8458,10 +8530,10 @@
         <v>78</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>78</v>
@@ -8472,10 +8544,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8498,19 +8570,19 @@
         <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>78</v>
@@ -8559,7 +8631,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
@@ -8568,25 +8640,25 @@
         <v>88</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>122</v>
+        <v>220</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>78</v>
@@ -8594,10 +8666,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8620,16 +8692,16 @@
         <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8679,7 +8751,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
@@ -8688,10 +8760,10 @@
         <v>77</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>122</v>
+        <v>220</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>78</v>
@@ -8700,13 +8772,13 @@
         <v>78</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>78</v>
@@ -8714,14 +8786,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8740,19 +8812,19 @@
         <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>78</v>
@@ -8801,7 +8873,7 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
@@ -8810,25 +8882,25 @@
         <v>88</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>122</v>
+        <v>220</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>78</v>
@@ -8836,14 +8908,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8862,19 +8934,19 @@
         <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>78</v>
@@ -8923,7 +8995,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
@@ -8932,25 +9004,25 @@
         <v>88</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>78</v>
@@ -8958,10 +9030,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8984,16 +9056,16 @@
         <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -9043,7 +9115,7 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
@@ -9052,10 +9124,10 @@
         <v>88</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>78</v>
@@ -9064,13 +9136,13 @@
         <v>78</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>78</v>
@@ -9078,10 +9150,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9104,17 +9176,19 @@
         <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>419</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="O56" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>78</v>
@@ -9163,7 +9237,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
@@ -9172,25 +9246,25 @@
         <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>122</v>
+        <v>220</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>78</v>
@@ -9198,10 +9272,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9224,19 +9298,19 @@
         <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>78</v>
@@ -9273,17 +9347,19 @@
         <v>78</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="AC57" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>431</v>
+      </c>
       <c r="AD57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>427</v>
+        <v>116</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
@@ -9292,39 +9368,39 @@
         <v>88</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>78</v>
@@ -9346,19 +9422,19 @@
         <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>78</v>
@@ -9407,7 +9483,7 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
@@ -9416,36 +9492,36 @@
         <v>88</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9468,13 +9544,13 @@
         <v>78</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9525,7 +9601,7 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
@@ -9549,7 +9625,7 @@
         <v>78</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>78</v>
@@ -9560,14 +9636,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9586,16 +9662,16 @@
         <v>78</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9633,19 +9709,19 @@
         <v>78</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
@@ -9654,10 +9730,10 @@
         <v>77</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>78</v>
@@ -9669,7 +9745,7 @@
         <v>78</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>78</v>
@@ -9680,10 +9756,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9706,19 +9782,19 @@
         <v>89</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>78</v>
@@ -9767,7 +9843,7 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
@@ -9776,10 +9852,10 @@
         <v>88</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>78</v>
@@ -9788,10 +9864,10 @@
         <v>78</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>78</v>
@@ -9802,10 +9878,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9828,23 +9904,25 @@
         <v>89</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>457</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="O62" t="s" s="2">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q62" t="s" s="2">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="R62" t="s" s="2">
         <v>78</v>
@@ -9865,13 +9943,13 @@
         <v>78</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>78</v>
@@ -9889,7 +9967,7 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
@@ -9898,10 +9976,10 @@
         <v>88</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>78</v>
@@ -9910,10 +9988,10 @@
         <v>78</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>78</v>
@@ -9924,10 +10002,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9950,17 +10028,19 @@
         <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>468</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="O63" t="s" s="2">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>78</v>
@@ -10009,7 +10089,7 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
@@ -10018,10 +10098,10 @@
         <v>88</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>78</v>
@@ -10030,10 +10110,10 @@
         <v>78</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>78</v>
@@ -10044,10 +10124,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10070,24 +10150,26 @@
         <v>89</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>476</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>477</v>
+      </c>
       <c r="O64" t="s" s="2">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" t="s" s="2">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="S64" t="s" s="2">
         <v>78</v>
@@ -10129,7 +10211,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
@@ -10138,10 +10220,10 @@
         <v>88</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>78</v>
@@ -10150,10 +10232,10 @@
         <v>78</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>78</v>
@@ -10164,10 +10246,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10190,26 +10272,26 @@
         <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" t="s" s="2">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="S65" t="s" s="2">
         <v>78</v>
@@ -10251,7 +10333,7 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>76</v>
@@ -10260,10 +10342,10 @@
         <v>88</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>78</v>
@@ -10272,10 +10354,10 @@
         <v>78</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>78</v>
@@ -10286,10 +10368,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10312,19 +10394,19 @@
         <v>78</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>78</v>
@@ -10349,32 +10431,32 @@
         <v>78</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="Z66" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF66" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="AA66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>485</v>
-      </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
       </c>
@@ -10382,10 +10464,10 @@
         <v>88</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>78</v>
@@ -10394,10 +10476,10 @@
         <v>78</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>189</v>
+        <v>101</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>78</v>
@@ -10408,10 +10490,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10434,13 +10516,13 @@
         <v>78</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10491,7 +10573,7 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>76</v>
@@ -10515,7 +10597,7 @@
         <v>78</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>78</v>
@@ -10526,14 +10608,14 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -10552,16 +10634,16 @@
         <v>78</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10599,19 +10681,19 @@
         <v>78</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC68" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>76</v>
@@ -10623,7 +10705,7 @@
         <v>78</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>78</v>
@@ -10635,7 +10717,7 @@
         <v>78</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>78</v>
@@ -10646,10 +10728,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10672,19 +10754,19 @@
         <v>89</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>78</v>
@@ -10733,7 +10815,7 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>76</v>
@@ -10745,7 +10827,7 @@
         <v>78</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>78</v>
@@ -10754,10 +10836,10 @@
         <v>78</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>78</v>
@@ -10768,10 +10850,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10794,13 +10876,13 @@
         <v>78</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10851,7 +10933,7 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>76</v>
@@ -10875,7 +10957,7 @@
         <v>78</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>78</v>
@@ -10886,14 +10968,14 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -10912,16 +10994,16 @@
         <v>78</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10959,19 +11041,19 @@
         <v>78</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC71" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>76</v>
@@ -10983,7 +11065,7 @@
         <v>78</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>78</v>
@@ -10995,7 +11077,7 @@
         <v>78</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>78</v>
@@ -11006,10 +11088,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11032,19 +11114,19 @@
         <v>89</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>78</v>
@@ -11093,7 +11175,7 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>76</v>
@@ -11105,7 +11187,7 @@
         <v>78</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>78</v>
@@ -11114,10 +11196,10 @@
         <v>78</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>78</v>
@@ -11128,10 +11210,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11154,16 +11236,16 @@
         <v>89</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -11213,7 +11295,7 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>76</v>
@@ -11225,7 +11307,7 @@
         <v>78</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>78</v>
@@ -11234,10 +11316,10 @@
         <v>78</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>78</v>
@@ -11248,10 +11330,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11274,17 +11356,17 @@
         <v>89</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>78</v>
@@ -11333,7 +11415,7 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>76</v>
@@ -11345,7 +11427,7 @@
         <v>78</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>78</v>
@@ -11354,10 +11436,10 @@
         <v>78</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>78</v>
@@ -11368,10 +11450,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11394,17 +11476,17 @@
         <v>89</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>78</v>
@@ -11453,7 +11535,7 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>76</v>
@@ -11465,7 +11547,7 @@
         <v>78</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>78</v>
@@ -11474,10 +11556,10 @@
         <v>78</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>78</v>
@@ -11488,10 +11570,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11514,19 +11596,19 @@
         <v>89</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>78</v>
@@ -11575,7 +11657,7 @@
         <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>76</v>
@@ -11587,7 +11669,7 @@
         <v>78</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>78</v>
@@ -11596,10 +11678,10 @@
         <v>78</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>78</v>
@@ -11610,10 +11692,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11636,19 +11718,19 @@
         <v>89</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>78</v>
@@ -11697,7 +11779,7 @@
         <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>76</v>
@@ -11709,7 +11791,7 @@
         <v>78</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>78</v>
@@ -11718,10 +11800,10 @@
         <v>78</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>78</v>
@@ -11732,14 +11814,14 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -11758,19 +11840,19 @@
         <v>78</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>78</v>
@@ -11795,31 +11877,31 @@
         <v>78</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Y78" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF78" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>505</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>76</v>
@@ -11828,36 +11910,36 @@
         <v>77</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AP78" t="s" s="2">
-        <v>516</v>
+        <v>522</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11880,19 +11962,19 @@
         <v>78</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>78</v>
@@ -11941,7 +12023,7 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>76</v>
@@ -11950,10 +12032,10 @@
         <v>77</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>78</v>
@@ -11962,10 +12044,10 @@
         <v>78</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>78</v>
@@ -11976,10 +12058,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12002,16 +12084,16 @@
         <v>78</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -12037,13 +12119,13 @@
         <v>78</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>78</v>
@@ -12061,7 +12143,7 @@
         <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>76</v>
@@ -12070,36 +12152,36 @@
         <v>88</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AP80" t="s" s="2">
-        <v>533</v>
+        <v>540</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12122,19 +12204,19 @@
         <v>78</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>526</v>
+        <v>542</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>526</v>
+        <v>543</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>78</v>
@@ -12159,13 +12241,13 @@
         <v>78</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>78</v>
@@ -12183,7 +12265,7 @@
         <v>78</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>76</v>
@@ -12192,10 +12274,10 @@
         <v>88</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>78</v>
@@ -12204,10 +12286,10 @@
         <v>78</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>78</v>
@@ -12218,10 +12300,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12244,16 +12326,16 @@
         <v>78</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -12303,7 +12385,7 @@
         <v>78</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>76</v>
@@ -12312,36 +12394,36 @@
         <v>88</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>122</v>
+        <v>220</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AP82" t="s" s="2">
-        <v>549</v>
+        <v>558</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12364,16 +12446,16 @@
         <v>78</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12423,7 +12505,7 @@
         <v>78</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>76</v>
@@ -12432,36 +12514,36 @@
         <v>88</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>122</v>
+        <v>220</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AP83" t="s" s="2">
-        <v>558</v>
+        <v>567</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12484,19 +12566,19 @@
         <v>78</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>78</v>
@@ -12545,7 +12627,7 @@
         <v>78</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>76</v>
@@ -12554,10 +12636,10 @@
         <v>77</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>78</v>
@@ -12566,10 +12648,10 @@
         <v>78</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>78</v>
@@ -12580,10 +12662,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12606,13 +12688,13 @@
         <v>78</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -12663,7 +12745,7 @@
         <v>78</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>76</v>
@@ -12687,7 +12769,7 @@
         <v>78</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>78</v>
@@ -12698,14 +12780,14 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -12724,16 +12806,16 @@
         <v>78</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12771,19 +12853,19 @@
         <v>78</v>
       </c>
       <c r="AB86" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AC86" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AD86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>76</v>
@@ -12792,10 +12874,10 @@
         <v>77</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>78</v>
@@ -12807,7 +12889,7 @@
         <v>78</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>78</v>
@@ -12818,14 +12900,14 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -12844,19 +12926,19 @@
         <v>89</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>78</v>
@@ -12905,7 +12987,7 @@
         <v>78</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>76</v>
@@ -12914,10 +12996,10 @@
         <v>77</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>78</v>
@@ -12929,7 +13011,7 @@
         <v>78</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>189</v>
+        <v>101</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>78</v>
@@ -12940,10 +13022,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12966,15 +13048,17 @@
         <v>78</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="N88" s="2"/>
+        <v>587</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>588</v>
+      </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>78</v>
@@ -13023,7 +13107,7 @@
         <v>78</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>76</v>
@@ -13032,10 +13116,10 @@
         <v>88</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>122</v>
+        <v>590</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>78</v>
@@ -13044,10 +13128,10 @@
         <v>78</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>78</v>
@@ -13058,10 +13142,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13084,15 +13168,17 @@
         <v>78</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="N89" s="2"/>
+        <v>595</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>588</v>
+      </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>78</v>
@@ -13141,7 +13227,7 @@
         <v>78</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>76</v>
@@ -13150,10 +13236,10 @@
         <v>88</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>122</v>
+        <v>590</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>78</v>
@@ -13162,10 +13248,10 @@
         <v>78</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>78</v>
@@ -13176,10 +13262,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13202,19 +13288,19 @@
         <v>78</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>78</v>
@@ -13239,13 +13325,13 @@
         <v>78</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>78</v>
@@ -13263,7 +13349,7 @@
         <v>78</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>76</v>
@@ -13272,22 +13358,22 @@
         <v>88</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>78</v>
@@ -13298,10 +13384,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>595</v>
+        <v>606</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>595</v>
+        <v>606</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13324,19 +13410,19 @@
         <v>78</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>78</v>
@@ -13361,13 +13447,13 @@
         <v>78</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>601</v>
+        <v>612</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>78</v>
@@ -13385,7 +13471,7 @@
         <v>78</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>595</v>
+        <v>606</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>76</v>
@@ -13394,22 +13480,22 @@
         <v>77</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>78</v>
@@ -13420,10 +13506,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>602</v>
+        <v>613</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>602</v>
+        <v>613</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13446,13 +13532,13 @@
         <v>78</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -13503,7 +13589,7 @@
         <v>78</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>76</v>
@@ -13527,7 +13613,7 @@
         <v>78</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>78</v>
@@ -13538,14 +13624,14 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
@@ -13564,16 +13650,16 @@
         <v>78</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -13611,19 +13697,19 @@
         <v>78</v>
       </c>
       <c r="AB93" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC93" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>76</v>
@@ -13635,7 +13721,7 @@
         <v>78</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>78</v>
@@ -13647,7 +13733,7 @@
         <v>78</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>78</v>
@@ -13658,10 +13744,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13684,19 +13770,19 @@
         <v>89</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>78</v>
@@ -13745,7 +13831,7 @@
         <v>78</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>76</v>
@@ -13757,7 +13843,7 @@
         <v>78</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>78</v>
@@ -13766,10 +13852,10 @@
         <v>78</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>78</v>
@@ -13780,10 +13866,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>605</v>
+        <v>616</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>605</v>
+        <v>616</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13806,13 +13892,13 @@
         <v>78</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -13863,7 +13949,7 @@
         <v>78</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>76</v>
@@ -13887,7 +13973,7 @@
         <v>78</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>78</v>
@@ -13898,14 +13984,14 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>606</v>
+        <v>617</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>606</v>
+        <v>617</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -13924,16 +14010,16 @@
         <v>78</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -13971,19 +14057,19 @@
         <v>78</v>
       </c>
       <c r="AB96" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC96" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>76</v>
@@ -13995,7 +14081,7 @@
         <v>78</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>78</v>
@@ -14007,7 +14093,7 @@
         <v>78</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>78</v>
@@ -14018,10 +14104,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14044,19 +14130,19 @@
         <v>89</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>78</v>
@@ -14105,7 +14191,7 @@
         <v>78</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>76</v>
@@ -14117,7 +14203,7 @@
         <v>78</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>78</v>
@@ -14126,10 +14212,10 @@
         <v>78</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>78</v>
@@ -14140,10 +14226,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>608</v>
+        <v>619</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>608</v>
+        <v>619</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14166,16 +14252,16 @@
         <v>89</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -14225,7 +14311,7 @@
         <v>78</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>76</v>
@@ -14237,7 +14323,7 @@
         <v>78</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>78</v>
@@ -14246,10 +14332,10 @@
         <v>78</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>78</v>
@@ -14260,10 +14346,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>609</v>
+        <v>620</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>609</v>
+        <v>620</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14286,17 +14372,17 @@
         <v>89</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>78</v>
@@ -14345,7 +14431,7 @@
         <v>78</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>76</v>
@@ -14357,7 +14443,7 @@
         <v>78</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>78</v>
@@ -14366,10 +14452,10 @@
         <v>78</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>78</v>
@@ -14380,10 +14466,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>610</v>
+        <v>621</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>610</v>
+        <v>621</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14406,17 +14492,17 @@
         <v>89</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>78</v>
@@ -14465,7 +14551,7 @@
         <v>78</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>76</v>
@@ -14477,7 +14563,7 @@
         <v>78</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>78</v>
@@ -14486,10 +14572,10 @@
         <v>78</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>78</v>
@@ -14500,10 +14586,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14526,19 +14612,19 @@
         <v>89</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>78</v>
@@ -14587,7 +14673,7 @@
         <v>78</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>76</v>
@@ -14599,7 +14685,7 @@
         <v>78</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>78</v>
@@ -14608,10 +14694,10 @@
         <v>78</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>78</v>
@@ -14622,10 +14708,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>612</v>
+        <v>623</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>612</v>
+        <v>623</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14648,19 +14734,19 @@
         <v>89</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>78</v>
@@ -14709,7 +14795,7 @@
         <v>78</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>76</v>
@@ -14721,7 +14807,7 @@
         <v>78</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>78</v>
@@ -14730,10 +14816,10 @@
         <v>78</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>78</v>
@@ -14744,10 +14830,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>613</v>
+        <v>624</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>613</v>
+        <v>624</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14770,17 +14856,19 @@
         <v>78</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>614</v>
+        <v>625</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>615</v>
+        <v>626</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="N103" s="2"/>
+        <v>627</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>628</v>
+      </c>
       <c r="O103" t="s" s="2">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>78</v>
@@ -14829,7 +14917,7 @@
         <v>78</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>613</v>
+        <v>624</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>76</v>
@@ -14838,10 +14926,10 @@
         <v>88</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>122</v>
+        <v>630</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>78</v>
@@ -14850,10 +14938,10 @@
         <v>78</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>78</v>
+        <v>631</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>618</v>
+        <v>632</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>78</v>
@@ -14864,10 +14952,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>619</v>
+        <v>633</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>619</v>
+        <v>633</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14890,15 +14978,17 @@
         <v>78</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>620</v>
+        <v>634</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="N104" s="2"/>
+        <v>635</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
         <v>78</v>
@@ -14947,7 +15037,7 @@
         <v>78</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>619</v>
+        <v>633</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>76</v>
@@ -14956,10 +15046,10 @@
         <v>88</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>78</v>
@@ -14968,10 +15058,10 @@
         <v>78</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>622</v>
+        <v>636</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>78</v>
@@ -14982,10 +15072,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>623</v>
+        <v>637</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>623</v>
+        <v>637</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15008,16 +15098,16 @@
         <v>89</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>624</v>
+        <v>638</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>526</v>
+        <v>639</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>526</v>
+        <v>640</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>625</v>
+        <v>641</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -15067,7 +15157,7 @@
         <v>78</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>623</v>
+        <v>637</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>76</v>
@@ -15076,10 +15166,10 @@
         <v>77</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>122</v>
+        <v>220</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>78</v>
@@ -15088,10 +15178,10 @@
         <v>78</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>626</v>
+        <v>642</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>627</v>
+        <v>643</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>78</v>
@@ -15102,10 +15192,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>628</v>
+        <v>644</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>628</v>
+        <v>644</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15128,16 +15218,16 @@
         <v>89</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>629</v>
+        <v>645</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>526</v>
+        <v>646</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>526</v>
+        <v>647</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>630</v>
+        <v>648</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -15187,7 +15277,7 @@
         <v>78</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>628</v>
+        <v>644</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>76</v>
@@ -15196,10 +15286,10 @@
         <v>77</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>122</v>
+        <v>220</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>78</v>
@@ -15208,10 +15298,10 @@
         <v>78</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>626</v>
+        <v>642</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>631</v>
+        <v>649</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>78</v>
@@ -15222,10 +15312,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>632</v>
+        <v>650</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>632</v>
+        <v>650</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15248,19 +15338,19 @@
         <v>89</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>633</v>
+        <v>651</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>633</v>
+        <v>651</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>634</v>
+        <v>652</v>
       </c>
       <c r="O107" t="s" s="2">
-        <v>635</v>
+        <v>653</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>78</v>
@@ -15309,7 +15399,7 @@
         <v>78</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>632</v>
+        <v>650</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>76</v>
@@ -15318,10 +15408,10 @@
         <v>77</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>636</v>
+        <v>654</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>78</v>
@@ -15330,10 +15420,10 @@
         <v>78</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>637</v>
+        <v>655</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>638</v>
+        <v>656</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>78</v>
@@ -15344,10 +15434,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>639</v>
+        <v>657</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>639</v>
+        <v>657</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15370,13 +15460,13 @@
         <v>78</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -15427,7 +15517,7 @@
         <v>78</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>76</v>
@@ -15451,7 +15541,7 @@
         <v>78</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>78</v>
@@ -15462,14 +15552,14 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>640</v>
+        <v>658</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>640</v>
+        <v>658</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
@@ -15488,16 +15578,16 @@
         <v>78</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -15535,19 +15625,19 @@
         <v>78</v>
       </c>
       <c r="AB109" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AC109" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AD109" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>76</v>
@@ -15556,10 +15646,10 @@
         <v>77</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>78</v>
@@ -15571,7 +15661,7 @@
         <v>78</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>78</v>
@@ -15582,14 +15672,14 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>641</v>
+        <v>659</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>641</v>
+        <v>659</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
@@ -15608,19 +15698,19 @@
         <v>89</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>78</v>
@@ -15669,7 +15759,7 @@
         <v>78</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>76</v>
@@ -15678,10 +15768,10 @@
         <v>77</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>78</v>
@@ -15693,7 +15783,7 @@
         <v>78</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>189</v>
+        <v>101</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>78</v>
@@ -15704,10 +15794,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>642</v>
+        <v>660</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>642</v>
+        <v>660</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15730,19 +15820,19 @@
         <v>89</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>643</v>
+        <v>661</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>644</v>
+        <v>662</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>645</v>
+        <v>663</v>
       </c>
       <c r="O111" t="s" s="2">
-        <v>646</v>
+        <v>664</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>78</v>
@@ -15767,13 +15857,13 @@
         <v>78</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Z111" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AA111" t="s" s="2">
         <v>78</v>
@@ -15791,7 +15881,7 @@
         <v>78</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>642</v>
+        <v>660</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>88</v>
@@ -15800,25 +15890,25 @@
         <v>88</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>647</v>
+        <v>665</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="AO111" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="AP111" t="s" s="2">
         <v>78</v>
@@ -15826,10 +15916,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>648</v>
+        <v>666</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>648</v>
+        <v>666</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15852,19 +15942,19 @@
         <v>89</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>649</v>
+        <v>426</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>650</v>
+        <v>667</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>651</v>
+        <v>668</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>652</v>
+        <v>669</v>
       </c>
       <c r="O112" t="s" s="2">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>78</v>
@@ -15889,13 +15979,13 @@
         <v>78</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>653</v>
+        <v>670</v>
       </c>
       <c r="Z112" t="s" s="2">
-        <v>654</v>
+        <v>671</v>
       </c>
       <c r="AA112" t="s" s="2">
         <v>78</v>
@@ -15913,7 +16003,7 @@
         <v>78</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>648</v>
+        <v>666</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>76</v>
@@ -15922,36 +16012,36 @@
         <v>88</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>655</v>
+        <v>672</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>656</v>
+        <v>673</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AP112" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>657</v>
+        <v>674</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>657</v>
+        <v>674</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15974,19 +16064,19 @@
         <v>78</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>658</v>
+        <v>675</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>659</v>
+        <v>676</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>660</v>
+        <v>677</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>78</v>
@@ -16011,13 +16101,13 @@
         <v>78</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="Z113" t="s" s="2">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>78</v>
@@ -16035,7 +16125,7 @@
         <v>78</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>657</v>
+        <v>674</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>76</v>
@@ -16044,10 +16134,10 @@
         <v>88</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>661</v>
+        <v>678</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>78</v>
@@ -16056,10 +16146,10 @@
         <v>78</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>189</v>
+        <v>101</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>78</v>
@@ -16070,14 +16160,14 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>662</v>
+        <v>679</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>662</v>
+        <v>679</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
@@ -16096,19 +16186,19 @@
         <v>78</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>78</v>
@@ -16133,13 +16223,13 @@
         <v>78</v>
       </c>
       <c r="X114" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="Z114" t="s" s="2">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="AA114" t="s" s="2">
         <v>78</v>
@@ -16157,7 +16247,7 @@
         <v>78</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>662</v>
+        <v>679</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>76</v>
@@ -16166,36 +16256,36 @@
         <v>77</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AP114" t="s" s="2">
-        <v>516</v>
+        <v>522</v>
       </c>
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16221,16 +16311,16 @@
         <v>79</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>664</v>
+        <v>681</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>665</v>
+        <v>682</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>78</v>
@@ -16279,7 +16369,7 @@
         <v>78</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>76</v>
@@ -16291,7 +16381,7 @@
         <v>78</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>78</v>
@@ -16300,10 +16390,10 @@
         <v>78</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>78</v>
